--- a/test/data/testdata.xlsx
+++ b/test/data/testdata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cabs" sheetId="1" r:id="rId1"/>
     <sheet name="flights" sheetId="2" r:id="rId2"/>
     <sheet name="bus" sheetId="3" r:id="rId3"/>
+    <sheet name="git" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>triptype</t>
   </si>
@@ -106,6 +107,24 @@
   </si>
   <si>
     <t>Faizalganj</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>subTab</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
   </si>
 </sst>
 </file>
@@ -595,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -648,4 +667,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/data/testdata.xlsx
+++ b/test/data/testdata.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cabs" sheetId="1" r:id="rId1"/>
     <sheet name="flights" sheetId="2" r:id="rId2"/>
     <sheet name="bus" sheetId="3" r:id="rId3"/>
     <sheet name="git" sheetId="4" r:id="rId4"/>
+    <sheet name="ADP_TwoWheeler" sheetId="5" r:id="rId5"/>
+    <sheet name="CityOfRegitration" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t>triptype</t>
   </si>
@@ -125,13 +130,259 @@
   </si>
   <si>
     <t>Dependencies</t>
+  </si>
+  <si>
+    <t>TestDataID</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>BusinessType</t>
+  </si>
+  <si>
+    <t>OfficeCode</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>RegistrationDate</t>
+  </si>
+  <si>
+    <t>CityOfRegistration</t>
+  </si>
+  <si>
+    <t>DailyCashAllowance</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>SelectTimeExcess</t>
+  </si>
+  <si>
+    <t>RegistrationCost</t>
+  </si>
+  <si>
+    <t>RoadTax</t>
+  </si>
+  <si>
+    <t>PremiumAmount</t>
+  </si>
+  <si>
+    <t>GSTAmount</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>RegistrationNo</t>
+  </si>
+  <si>
+    <t>YOM</t>
+  </si>
+  <si>
+    <t>EngineNo</t>
+  </si>
+  <si>
+    <t>ChassisNo</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>HouseNo</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>nomineeName</t>
+  </si>
+  <si>
+    <t>nomineeRelation</t>
+  </si>
+  <si>
+    <t>nomineeAge</t>
+  </si>
+  <si>
+    <t>kycVerification</t>
+  </si>
+  <si>
+    <t>verificationNo</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>paymentOption</t>
+  </si>
+  <si>
+    <t>AllBanks</t>
+  </si>
+  <si>
+    <t>BankStatus</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61070104 - SIVAGANGA CIE </t>
+  </si>
+  <si>
+    <t>Bajaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rs. 250 per day allowance </t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Susmitha</t>
+  </si>
+  <si>
+    <t>"9898989898"</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>"10/01/1995"</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>CHENNAI</t>
+  </si>
+  <si>
+    <t>ETHIRAJ SALAI S.O</t>
+  </si>
+  <si>
+    <t>foodStreet</t>
+  </si>
+  <si>
+    <t>SampleTest</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>"FCQPS8346G"</t>
+  </si>
+  <si>
+    <t>BillDesk</t>
+  </si>
+  <si>
+    <t>Internet Banking</t>
+  </si>
+  <si>
+    <t>Test Bank</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>No.ofEMI</t>
+  </si>
+  <si>
+    <t>Body Color</t>
+  </si>
+  <si>
+    <t>YearOfManufacture</t>
+  </si>
+  <si>
+    <t>TD003</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>NewBusiness</t>
+  </si>
+  <si>
+    <t>CALIBER - 115</t>
+  </si>
+  <si>
+    <t>PastDate</t>
+  </si>
+  <si>
+    <t>CITY OF REGISTRATION</t>
+  </si>
+  <si>
+    <t>REGISTRATION NUMBER</t>
+  </si>
+  <si>
+    <t>AP02-HINDUPUR(ANDHRA PRADESH)</t>
+  </si>
+  <si>
+    <t>AP02AA3555</t>
+  </si>
+  <si>
+    <t>TN01-CHENNAI CENTRAL(TAMIL NADU)</t>
+  </si>
+  <si>
+    <t>TN01BR0121</t>
+  </si>
+  <si>
+    <t>TN02-CHENNAI (NORTH-WEST)(TAMIL NADU)</t>
+  </si>
+  <si>
+    <t>TN02BR0121</t>
+  </si>
+  <si>
+    <t>TN03-CHENNAI NORTH EAST(TAMIL NADU)</t>
+  </si>
+  <si>
+    <t>TN03BR0121</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,19 +390,111 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -160,13 +503,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -177,6 +609,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TestData"/>
+      <sheetName val="Two_Wheeler"/>
+      <sheetName val="City_Of_Registration"/>
+      <sheetName val="DateFormat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>TN02-CHENNAI (NORTH-WEST)(TAMIL NADU)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -709,4 +1166,1762 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BAD2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1382" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
+      <c r="EK1" s="5"/>
+      <c r="EL1" s="5"/>
+      <c r="EM1" s="5"/>
+      <c r="EN1" s="5"/>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="5"/>
+      <c r="EU1" s="5"/>
+      <c r="EV1" s="5"/>
+      <c r="EW1" s="5"/>
+      <c r="EX1" s="6"/>
+      <c r="EY1" s="6"/>
+      <c r="EZ1" s="6"/>
+      <c r="FA1" s="6"/>
+      <c r="FB1" s="6"/>
+      <c r="FC1" s="6"/>
+      <c r="FD1" s="6"/>
+      <c r="FE1" s="6"/>
+      <c r="FF1" s="6"/>
+      <c r="FG1" s="6"/>
+      <c r="FH1" s="6"/>
+      <c r="FI1" s="6"/>
+      <c r="FJ1" s="6"/>
+      <c r="FK1" s="6"/>
+      <c r="FL1" s="6"/>
+      <c r="FM1" s="6"/>
+      <c r="FN1" s="6"/>
+      <c r="FO1" s="6"/>
+      <c r="FP1" s="6"/>
+      <c r="FQ1" s="6"/>
+      <c r="FR1" s="6"/>
+      <c r="FS1" s="6"/>
+      <c r="FT1" s="6"/>
+      <c r="FU1" s="6"/>
+      <c r="FV1" s="6"/>
+      <c r="FW1" s="6"/>
+      <c r="FX1" s="6"/>
+      <c r="FY1" s="6"/>
+      <c r="FZ1" s="6"/>
+      <c r="GA1" s="6"/>
+      <c r="GB1" s="6"/>
+      <c r="GC1" s="6"/>
+      <c r="GD1" s="6"/>
+      <c r="GE1" s="6"/>
+      <c r="GF1" s="6"/>
+      <c r="GG1" s="6"/>
+      <c r="GH1" s="6"/>
+      <c r="GI1" s="6"/>
+      <c r="GJ1" s="6"/>
+      <c r="GK1" s="6"/>
+      <c r="GL1" s="6"/>
+      <c r="GM1" s="6"/>
+      <c r="GN1" s="6"/>
+      <c r="GO1" s="6"/>
+      <c r="GP1" s="6"/>
+      <c r="GQ1" s="6"/>
+      <c r="GR1" s="6"/>
+      <c r="GS1" s="6"/>
+      <c r="GT1" s="6"/>
+      <c r="GU1" s="6"/>
+      <c r="GV1" s="6"/>
+      <c r="GW1" s="6"/>
+      <c r="GX1" s="6"/>
+      <c r="GY1" s="6"/>
+      <c r="GZ1" s="6"/>
+      <c r="HA1" s="6"/>
+      <c r="HB1" s="6"/>
+      <c r="HC1" s="6"/>
+      <c r="HD1" s="6"/>
+      <c r="HE1" s="6"/>
+      <c r="HF1" s="6"/>
+      <c r="HG1" s="6"/>
+      <c r="HH1" s="6"/>
+      <c r="HI1" s="6"/>
+      <c r="HJ1" s="6"/>
+      <c r="HK1" s="6"/>
+      <c r="HL1" s="6"/>
+      <c r="HM1" s="6"/>
+      <c r="HN1" s="6"/>
+      <c r="HO1" s="6"/>
+      <c r="HP1" s="6"/>
+      <c r="HQ1" s="6"/>
+      <c r="HR1" s="6"/>
+      <c r="HS1" s="6"/>
+      <c r="HT1" s="6"/>
+      <c r="HU1" s="6"/>
+      <c r="HV1" s="6"/>
+      <c r="HW1" s="6"/>
+      <c r="HX1" s="6"/>
+      <c r="HY1" s="6"/>
+      <c r="HZ1" s="6"/>
+      <c r="IA1" s="6"/>
+      <c r="IB1" s="6"/>
+      <c r="IC1" s="6"/>
+      <c r="ID1" s="6"/>
+      <c r="IE1" s="6"/>
+      <c r="IF1" s="6"/>
+      <c r="IG1" s="6"/>
+      <c r="IH1" s="6"/>
+      <c r="II1" s="6"/>
+      <c r="IJ1" s="6"/>
+      <c r="IK1" s="6"/>
+      <c r="IL1" s="6"/>
+      <c r="IM1" s="6"/>
+      <c r="IN1" s="6"/>
+      <c r="IO1" s="6"/>
+      <c r="IP1" s="6"/>
+      <c r="IQ1" s="6"/>
+      <c r="IR1" s="6"/>
+      <c r="IS1" s="6"/>
+      <c r="IT1" s="6"/>
+      <c r="IU1" s="6"/>
+      <c r="IV1" s="6"/>
+      <c r="IW1" s="6"/>
+      <c r="IX1" s="6"/>
+      <c r="IY1" s="6"/>
+      <c r="IZ1" s="6"/>
+      <c r="JA1" s="6"/>
+      <c r="JB1" s="6"/>
+      <c r="JC1" s="6"/>
+      <c r="JD1" s="6"/>
+      <c r="JE1" s="6"/>
+      <c r="JF1" s="6"/>
+      <c r="JG1" s="6"/>
+      <c r="JH1" s="6"/>
+      <c r="JI1" s="6"/>
+      <c r="JJ1" s="6"/>
+      <c r="JK1" s="6"/>
+      <c r="JL1" s="6"/>
+      <c r="JM1" s="6"/>
+      <c r="JN1" s="6"/>
+      <c r="JO1" s="6"/>
+      <c r="JP1" s="6"/>
+      <c r="JQ1" s="6"/>
+      <c r="JR1" s="6"/>
+      <c r="JS1" s="6"/>
+      <c r="JT1" s="6"/>
+      <c r="JU1" s="6"/>
+      <c r="JV1" s="6"/>
+      <c r="JW1" s="6"/>
+      <c r="JX1" s="6"/>
+      <c r="JY1" s="6"/>
+      <c r="JZ1" s="6"/>
+      <c r="KA1" s="6"/>
+      <c r="KB1" s="6"/>
+      <c r="KC1" s="6"/>
+      <c r="KD1" s="6"/>
+      <c r="KE1" s="6"/>
+      <c r="KF1" s="6"/>
+      <c r="KG1" s="6"/>
+      <c r="KH1" s="6"/>
+      <c r="KI1" s="6"/>
+      <c r="KJ1" s="6"/>
+      <c r="KK1" s="6"/>
+      <c r="KL1" s="6"/>
+      <c r="KM1" s="6"/>
+      <c r="KN1" s="6"/>
+      <c r="KO1" s="6"/>
+      <c r="KP1" s="6"/>
+      <c r="KQ1" s="6"/>
+      <c r="KR1" s="6"/>
+      <c r="KS1" s="6"/>
+      <c r="KT1" s="6"/>
+      <c r="KU1" s="6"/>
+      <c r="KV1" s="6"/>
+      <c r="KW1" s="6"/>
+      <c r="KX1" s="6"/>
+      <c r="KY1" s="6"/>
+      <c r="KZ1" s="6"/>
+      <c r="LA1" s="6"/>
+      <c r="LB1" s="6"/>
+      <c r="LC1" s="6"/>
+      <c r="LD1" s="6"/>
+      <c r="LE1" s="6"/>
+      <c r="LF1" s="6"/>
+      <c r="LG1" s="6"/>
+      <c r="LH1" s="6"/>
+      <c r="LI1" s="6"/>
+      <c r="LJ1" s="6"/>
+      <c r="LK1" s="6"/>
+      <c r="LL1" s="6"/>
+      <c r="LM1" s="6"/>
+      <c r="LN1" s="6"/>
+      <c r="LO1" s="6"/>
+      <c r="LP1" s="6"/>
+      <c r="LQ1" s="6"/>
+      <c r="LR1" s="6"/>
+      <c r="LS1" s="6"/>
+      <c r="LT1" s="6"/>
+      <c r="LU1" s="6"/>
+      <c r="LV1" s="6"/>
+      <c r="LW1" s="6"/>
+      <c r="LX1" s="6"/>
+      <c r="LY1" s="6"/>
+      <c r="LZ1" s="6"/>
+      <c r="MA1" s="6"/>
+      <c r="MB1" s="6"/>
+      <c r="MC1" s="6"/>
+      <c r="MD1" s="6"/>
+      <c r="ME1" s="6"/>
+      <c r="MF1" s="6"/>
+      <c r="MG1" s="6"/>
+      <c r="MH1" s="6"/>
+      <c r="MI1" s="6"/>
+      <c r="MJ1" s="6"/>
+      <c r="MK1" s="6"/>
+      <c r="ML1" s="6"/>
+      <c r="MM1" s="6"/>
+      <c r="MN1" s="6"/>
+      <c r="MO1" s="6"/>
+      <c r="MP1" s="6"/>
+      <c r="MQ1" s="6"/>
+      <c r="MR1" s="6"/>
+      <c r="MS1" s="6"/>
+      <c r="MT1" s="6"/>
+      <c r="MU1" s="6"/>
+      <c r="MV1" s="6"/>
+      <c r="MW1" s="6"/>
+      <c r="MX1" s="6"/>
+      <c r="MY1" s="6"/>
+      <c r="MZ1" s="6"/>
+      <c r="NA1" s="6"/>
+      <c r="NB1" s="6"/>
+      <c r="NC1" s="6"/>
+      <c r="ND1" s="6"/>
+      <c r="NE1" s="6"/>
+      <c r="NF1" s="6"/>
+      <c r="NG1" s="6"/>
+      <c r="NH1" s="6"/>
+      <c r="NI1" s="6"/>
+      <c r="NJ1" s="6"/>
+      <c r="NK1" s="6"/>
+      <c r="NL1" s="6"/>
+      <c r="NM1" s="6"/>
+      <c r="NN1" s="6"/>
+      <c r="NO1" s="6"/>
+      <c r="NP1" s="6"/>
+      <c r="NQ1" s="6"/>
+      <c r="NR1" s="6"/>
+      <c r="NS1" s="6"/>
+      <c r="NT1" s="6"/>
+      <c r="NU1" s="6"/>
+      <c r="NV1" s="6"/>
+      <c r="NW1" s="6"/>
+      <c r="NX1" s="6"/>
+      <c r="NY1" s="6"/>
+      <c r="NZ1" s="6"/>
+      <c r="OA1" s="6"/>
+      <c r="OB1" s="6"/>
+      <c r="OC1" s="6"/>
+      <c r="OD1" s="6"/>
+      <c r="OE1" s="6"/>
+      <c r="OF1" s="6"/>
+      <c r="OG1" s="6"/>
+      <c r="OH1" s="6"/>
+      <c r="OI1" s="6"/>
+      <c r="OJ1" s="6"/>
+      <c r="OK1" s="6"/>
+      <c r="OL1" s="6"/>
+      <c r="OM1" s="6"/>
+      <c r="ON1" s="6"/>
+      <c r="OO1" s="6"/>
+      <c r="OP1" s="6"/>
+      <c r="OQ1" s="6"/>
+      <c r="OR1" s="6"/>
+      <c r="OS1" s="6"/>
+      <c r="OT1" s="6"/>
+      <c r="OU1" s="6"/>
+      <c r="OV1" s="6"/>
+      <c r="OW1" s="6"/>
+      <c r="OX1" s="6"/>
+      <c r="OY1" s="6"/>
+      <c r="OZ1" s="6"/>
+      <c r="PA1" s="6"/>
+      <c r="PB1" s="6"/>
+      <c r="PC1" s="6"/>
+      <c r="PD1" s="6"/>
+      <c r="PE1" s="6"/>
+      <c r="PF1" s="6"/>
+      <c r="PG1" s="6"/>
+      <c r="PH1" s="6"/>
+      <c r="PI1" s="6"/>
+      <c r="PJ1" s="6"/>
+      <c r="PK1" s="6"/>
+      <c r="PL1" s="6"/>
+      <c r="PM1" s="6"/>
+      <c r="PN1" s="6"/>
+      <c r="PO1" s="6"/>
+      <c r="PP1" s="6"/>
+      <c r="PQ1" s="6"/>
+      <c r="PR1" s="6"/>
+      <c r="PS1" s="6"/>
+      <c r="PT1" s="6"/>
+      <c r="PU1" s="6"/>
+      <c r="PV1" s="6"/>
+      <c r="PW1" s="6"/>
+      <c r="PX1" s="6"/>
+      <c r="PY1" s="6"/>
+      <c r="PZ1" s="6"/>
+      <c r="QA1" s="6"/>
+      <c r="QB1" s="6"/>
+      <c r="QC1" s="6"/>
+      <c r="QD1" s="6"/>
+      <c r="QE1" s="6"/>
+      <c r="QF1" s="6"/>
+      <c r="QG1" s="6"/>
+      <c r="QH1" s="6"/>
+      <c r="QI1" s="6"/>
+      <c r="QJ1" s="6"/>
+      <c r="QK1" s="6"/>
+      <c r="QL1" s="6"/>
+      <c r="QM1" s="6"/>
+      <c r="QN1" s="6"/>
+      <c r="QO1" s="6"/>
+      <c r="QP1" s="6"/>
+      <c r="QQ1" s="6"/>
+      <c r="QR1" s="6"/>
+      <c r="QS1" s="6"/>
+      <c r="QT1" s="6"/>
+      <c r="QU1" s="6"/>
+      <c r="QV1" s="6"/>
+      <c r="QW1" s="6"/>
+      <c r="QX1" s="6"/>
+      <c r="QY1" s="6"/>
+      <c r="QZ1" s="6"/>
+      <c r="RA1" s="6"/>
+      <c r="RB1" s="6"/>
+      <c r="RC1" s="6"/>
+      <c r="RD1" s="6"/>
+      <c r="RE1" s="6"/>
+      <c r="RF1" s="6"/>
+      <c r="RG1" s="6"/>
+      <c r="RH1" s="6"/>
+      <c r="RI1" s="6"/>
+      <c r="RJ1" s="6"/>
+      <c r="RK1" s="6"/>
+      <c r="RL1" s="6"/>
+      <c r="RM1" s="6"/>
+      <c r="RN1" s="6"/>
+      <c r="RO1" s="6"/>
+      <c r="RP1" s="6"/>
+      <c r="RQ1" s="6"/>
+      <c r="RR1" s="6"/>
+      <c r="RS1" s="6"/>
+      <c r="RT1" s="6"/>
+      <c r="RU1" s="6"/>
+      <c r="RV1" s="6"/>
+      <c r="RW1" s="6"/>
+      <c r="RX1" s="6"/>
+      <c r="RY1" s="6"/>
+      <c r="RZ1" s="6"/>
+      <c r="SA1" s="6"/>
+      <c r="SB1" s="6"/>
+      <c r="SC1" s="6"/>
+      <c r="SD1" s="6"/>
+      <c r="SE1" s="6"/>
+      <c r="SF1" s="6"/>
+      <c r="SG1" s="6"/>
+      <c r="SH1" s="6"/>
+      <c r="SI1" s="6"/>
+      <c r="SJ1" s="6"/>
+      <c r="SK1" s="6"/>
+      <c r="SL1" s="6"/>
+      <c r="SM1" s="6"/>
+      <c r="SN1" s="6"/>
+      <c r="SO1" s="6"/>
+      <c r="SP1" s="6"/>
+      <c r="SQ1" s="6"/>
+      <c r="SR1" s="6"/>
+      <c r="SS1" s="6"/>
+      <c r="ST1" s="6"/>
+      <c r="SU1" s="6"/>
+      <c r="SV1" s="6"/>
+      <c r="SW1" s="6"/>
+      <c r="SX1" s="6"/>
+      <c r="SY1" s="6"/>
+      <c r="SZ1" s="6"/>
+      <c r="TA1" s="6"/>
+      <c r="TB1" s="6"/>
+      <c r="TC1" s="6"/>
+      <c r="TD1" s="6"/>
+      <c r="TE1" s="6"/>
+      <c r="TF1" s="6"/>
+      <c r="TG1" s="6"/>
+      <c r="TH1" s="6"/>
+      <c r="TI1" s="6"/>
+      <c r="TJ1" s="6"/>
+      <c r="TK1" s="6"/>
+      <c r="TL1" s="6"/>
+      <c r="TM1" s="6"/>
+      <c r="TN1" s="6"/>
+      <c r="TO1" s="6"/>
+      <c r="TP1" s="6"/>
+      <c r="TQ1" s="6"/>
+      <c r="TR1" s="6"/>
+      <c r="TS1" s="6"/>
+      <c r="TT1" s="6"/>
+      <c r="TU1" s="6"/>
+      <c r="TV1" s="6"/>
+      <c r="TW1" s="6"/>
+      <c r="TX1" s="6"/>
+      <c r="TY1" s="6"/>
+      <c r="TZ1" s="6"/>
+      <c r="UA1" s="6"/>
+      <c r="UB1" s="6"/>
+      <c r="UC1" s="6"/>
+      <c r="UD1" s="6"/>
+      <c r="UE1" s="6"/>
+      <c r="UF1" s="6"/>
+      <c r="UG1" s="6"/>
+      <c r="UH1" s="6"/>
+      <c r="UI1" s="6"/>
+      <c r="UJ1" s="6"/>
+      <c r="UK1" s="6"/>
+      <c r="UL1" s="6"/>
+      <c r="UM1" s="6"/>
+      <c r="UN1" s="6"/>
+      <c r="UO1" s="6"/>
+      <c r="UP1" s="6"/>
+      <c r="UQ1" s="6"/>
+      <c r="UR1" s="6"/>
+      <c r="US1" s="6"/>
+      <c r="UT1" s="6"/>
+      <c r="UU1" s="6"/>
+      <c r="UV1" s="6"/>
+      <c r="UW1" s="6"/>
+      <c r="UX1" s="6"/>
+      <c r="UY1" s="6"/>
+      <c r="UZ1" s="6"/>
+      <c r="VA1" s="6"/>
+      <c r="VB1" s="6"/>
+      <c r="VC1" s="6"/>
+      <c r="VD1" s="6"/>
+      <c r="VE1" s="6"/>
+      <c r="VF1" s="6"/>
+      <c r="VG1" s="6"/>
+      <c r="VH1" s="6"/>
+      <c r="VI1" s="6"/>
+      <c r="VJ1" s="6"/>
+      <c r="VK1" s="6"/>
+      <c r="VL1" s="6"/>
+      <c r="VM1" s="6"/>
+      <c r="VN1" s="6"/>
+      <c r="VO1" s="6"/>
+      <c r="VP1" s="6"/>
+      <c r="VQ1" s="6"/>
+      <c r="VR1" s="6"/>
+      <c r="VS1" s="6"/>
+      <c r="VT1" s="6"/>
+      <c r="VU1" s="6"/>
+      <c r="VV1" s="6"/>
+      <c r="VW1" s="6"/>
+      <c r="VX1" s="6"/>
+      <c r="VY1" s="6"/>
+      <c r="VZ1" s="6"/>
+      <c r="WA1" s="6"/>
+      <c r="WB1" s="6"/>
+      <c r="WC1" s="6"/>
+      <c r="WD1" s="6"/>
+      <c r="WE1" s="6"/>
+      <c r="WF1" s="6"/>
+      <c r="WG1" s="6"/>
+      <c r="WH1" s="6"/>
+      <c r="WI1" s="6"/>
+      <c r="WJ1" s="6"/>
+      <c r="WK1" s="6"/>
+      <c r="WL1" s="6"/>
+      <c r="WM1" s="6"/>
+      <c r="WN1" s="6"/>
+      <c r="WO1" s="6"/>
+      <c r="WP1" s="6"/>
+      <c r="WQ1" s="6"/>
+      <c r="WR1" s="6"/>
+      <c r="WS1" s="6"/>
+      <c r="WT1" s="6"/>
+      <c r="WU1" s="6"/>
+      <c r="WV1" s="6"/>
+      <c r="WW1" s="6"/>
+      <c r="WX1" s="6"/>
+      <c r="WY1" s="6"/>
+      <c r="WZ1" s="6"/>
+      <c r="XA1" s="6"/>
+      <c r="XB1" s="6"/>
+      <c r="XC1" s="6"/>
+      <c r="XD1" s="6"/>
+      <c r="XE1" s="6"/>
+      <c r="XF1" s="6"/>
+      <c r="XG1" s="6"/>
+      <c r="XH1" s="6"/>
+      <c r="XI1" s="6"/>
+      <c r="XJ1" s="6"/>
+      <c r="XK1" s="6"/>
+      <c r="XL1" s="6"/>
+      <c r="XM1" s="6"/>
+      <c r="XN1" s="6"/>
+      <c r="XO1" s="6"/>
+      <c r="XP1" s="6"/>
+      <c r="XQ1" s="6"/>
+      <c r="XR1" s="6"/>
+      <c r="XS1" s="6"/>
+      <c r="XT1" s="6"/>
+      <c r="XU1" s="6"/>
+      <c r="XV1" s="6"/>
+      <c r="XW1" s="6"/>
+      <c r="XX1" s="6"/>
+      <c r="XY1" s="6"/>
+      <c r="XZ1" s="6"/>
+      <c r="YA1" s="6"/>
+      <c r="YB1" s="6"/>
+      <c r="YC1" s="6"/>
+      <c r="YD1" s="6"/>
+      <c r="YE1" s="6"/>
+      <c r="YF1" s="6"/>
+      <c r="YG1" s="6"/>
+      <c r="YH1" s="6"/>
+      <c r="YI1" s="6"/>
+      <c r="YJ1" s="6"/>
+      <c r="YK1" s="6"/>
+      <c r="YL1" s="6"/>
+      <c r="YM1" s="6"/>
+      <c r="YN1" s="6"/>
+      <c r="YO1" s="6"/>
+      <c r="YP1" s="6"/>
+      <c r="YQ1" s="6"/>
+      <c r="YR1" s="6"/>
+      <c r="YS1" s="6"/>
+      <c r="YT1" s="6"/>
+      <c r="YU1" s="6"/>
+      <c r="YV1" s="6"/>
+      <c r="YW1" s="6"/>
+      <c r="YX1" s="6"/>
+      <c r="YY1" s="6"/>
+      <c r="YZ1" s="6"/>
+      <c r="ZA1" s="6"/>
+      <c r="ZB1" s="6"/>
+      <c r="ZC1" s="6"/>
+      <c r="ZD1" s="6"/>
+      <c r="ZE1" s="6"/>
+      <c r="ZF1" s="6"/>
+      <c r="ZG1" s="6"/>
+      <c r="ZH1" s="6"/>
+      <c r="ZI1" s="6"/>
+      <c r="ZJ1" s="6"/>
+      <c r="ZK1" s="6"/>
+      <c r="ZL1" s="6"/>
+      <c r="ZM1" s="6"/>
+      <c r="ZN1" s="6"/>
+      <c r="ZO1" s="6"/>
+      <c r="ZP1" s="6"/>
+      <c r="ZQ1" s="6"/>
+      <c r="ZR1" s="6"/>
+      <c r="ZS1" s="6"/>
+      <c r="ZT1" s="6"/>
+      <c r="ZU1" s="6"/>
+      <c r="ZV1" s="6"/>
+      <c r="ZW1" s="6"/>
+      <c r="ZX1" s="6"/>
+      <c r="ZY1" s="6"/>
+      <c r="ZZ1" s="6"/>
+      <c r="AAA1" s="6"/>
+      <c r="AAB1" s="6"/>
+      <c r="AAC1" s="6"/>
+      <c r="AAD1" s="6"/>
+      <c r="AAE1" s="6"/>
+      <c r="AAF1" s="6"/>
+      <c r="AAG1" s="6"/>
+      <c r="AAH1" s="6"/>
+      <c r="AAI1" s="6"/>
+      <c r="AAJ1" s="6"/>
+      <c r="AAK1" s="6"/>
+      <c r="AAL1" s="6"/>
+      <c r="AAM1" s="6"/>
+      <c r="AAN1" s="6"/>
+      <c r="AAO1" s="6"/>
+      <c r="AAP1" s="6"/>
+      <c r="AAQ1" s="6"/>
+      <c r="AAR1" s="6"/>
+      <c r="AAS1" s="6"/>
+      <c r="AAT1" s="6"/>
+      <c r="AAU1" s="6"/>
+      <c r="AAV1" s="6"/>
+      <c r="AAW1" s="6"/>
+      <c r="AAX1" s="6"/>
+      <c r="AAY1" s="6"/>
+      <c r="AAZ1" s="6"/>
+      <c r="ABA1" s="6"/>
+      <c r="ABB1" s="6"/>
+      <c r="ABC1" s="6"/>
+      <c r="ABD1" s="6"/>
+      <c r="ABE1" s="6"/>
+      <c r="ABF1" s="6"/>
+      <c r="ABG1" s="6"/>
+      <c r="ABH1" s="6"/>
+      <c r="ABI1" s="6"/>
+      <c r="ABJ1" s="6"/>
+      <c r="ABK1" s="6"/>
+      <c r="ABL1" s="6"/>
+      <c r="ABM1" s="6"/>
+      <c r="ABN1" s="6"/>
+      <c r="ABO1" s="6"/>
+      <c r="ABP1" s="6"/>
+      <c r="ABQ1" s="6"/>
+      <c r="ABR1" s="6"/>
+      <c r="ABS1" s="6"/>
+      <c r="ABT1" s="6"/>
+      <c r="ABU1" s="6"/>
+      <c r="ABV1" s="6"/>
+      <c r="ABW1" s="6"/>
+      <c r="ABX1" s="6"/>
+      <c r="ABY1" s="6"/>
+      <c r="ABZ1" s="6"/>
+      <c r="ACA1" s="6"/>
+      <c r="ACB1" s="6"/>
+      <c r="ACC1" s="6"/>
+      <c r="ACD1" s="6"/>
+      <c r="ACE1" s="6"/>
+      <c r="ACF1" s="6"/>
+      <c r="ACG1" s="6"/>
+      <c r="ACH1" s="6"/>
+      <c r="ACI1" s="6"/>
+      <c r="ACJ1" s="6"/>
+      <c r="ACK1" s="6"/>
+      <c r="ACL1" s="6"/>
+      <c r="ACM1" s="6"/>
+      <c r="ACN1" s="6"/>
+      <c r="ACO1" s="6"/>
+      <c r="ACP1" s="6"/>
+      <c r="ACQ1" s="6"/>
+      <c r="ACR1" s="6"/>
+      <c r="ACS1" s="6"/>
+      <c r="ACT1" s="6"/>
+      <c r="ACU1" s="6"/>
+      <c r="ACV1" s="6"/>
+      <c r="ACW1" s="6"/>
+      <c r="ACX1" s="6"/>
+      <c r="ACY1" s="6"/>
+      <c r="ACZ1" s="6"/>
+      <c r="ADA1" s="6"/>
+      <c r="ADB1" s="6"/>
+      <c r="ADC1" s="6"/>
+      <c r="ADD1" s="6"/>
+      <c r="ADE1" s="6"/>
+      <c r="ADF1" s="6"/>
+      <c r="ADG1" s="6"/>
+      <c r="ADH1" s="6"/>
+      <c r="ADI1" s="6"/>
+      <c r="ADJ1" s="6"/>
+      <c r="ADK1" s="6"/>
+      <c r="ADL1" s="6"/>
+      <c r="ADM1" s="6"/>
+      <c r="ADN1" s="6"/>
+      <c r="ADO1" s="6"/>
+      <c r="ADP1" s="6"/>
+      <c r="ADQ1" s="6"/>
+      <c r="ADR1" s="6"/>
+      <c r="ADS1" s="6"/>
+      <c r="ADT1" s="6"/>
+      <c r="ADU1" s="6"/>
+      <c r="ADV1" s="6"/>
+      <c r="ADW1" s="6"/>
+      <c r="ADX1" s="6"/>
+      <c r="ADY1" s="6"/>
+      <c r="ADZ1" s="6"/>
+      <c r="AEA1" s="6"/>
+      <c r="AEB1" s="6"/>
+      <c r="AEC1" s="6"/>
+      <c r="AED1" s="6"/>
+      <c r="AEE1" s="6"/>
+      <c r="AEF1" s="6"/>
+      <c r="AEG1" s="6"/>
+      <c r="AEH1" s="6"/>
+      <c r="AEI1" s="6"/>
+      <c r="AEJ1" s="6"/>
+      <c r="AEK1" s="6"/>
+      <c r="AEL1" s="6"/>
+      <c r="AEM1" s="6"/>
+      <c r="AEN1" s="6"/>
+      <c r="AEO1" s="6"/>
+      <c r="AEP1" s="6"/>
+      <c r="AEQ1" s="6"/>
+      <c r="AER1" s="6"/>
+      <c r="AES1" s="6"/>
+      <c r="AET1" s="6"/>
+      <c r="AEU1" s="6"/>
+      <c r="AEV1" s="6"/>
+      <c r="AEW1" s="6"/>
+      <c r="AEX1" s="6"/>
+      <c r="AEY1" s="6"/>
+      <c r="AEZ1" s="6"/>
+      <c r="AFA1" s="6"/>
+      <c r="AFB1" s="6"/>
+      <c r="AFC1" s="6"/>
+      <c r="AFD1" s="6"/>
+      <c r="AFE1" s="6"/>
+      <c r="AFF1" s="6"/>
+      <c r="AFG1" s="6"/>
+      <c r="AFH1" s="6"/>
+      <c r="AFI1" s="6"/>
+      <c r="AFJ1" s="6"/>
+      <c r="AFK1" s="6"/>
+      <c r="AFL1" s="6"/>
+      <c r="AFM1" s="6"/>
+      <c r="AFN1" s="6"/>
+      <c r="AFO1" s="6"/>
+      <c r="AFP1" s="6"/>
+      <c r="AFQ1" s="6"/>
+      <c r="AFR1" s="6"/>
+      <c r="AFS1" s="6"/>
+      <c r="AFT1" s="6"/>
+      <c r="AFU1" s="6"/>
+      <c r="AFV1" s="6"/>
+      <c r="AFW1" s="6"/>
+      <c r="AFX1" s="6"/>
+      <c r="AFY1" s="6"/>
+      <c r="AFZ1" s="6"/>
+      <c r="AGA1" s="6"/>
+      <c r="AGB1" s="6"/>
+      <c r="AGC1" s="6"/>
+      <c r="AGD1" s="6"/>
+      <c r="AGE1" s="6"/>
+      <c r="AGF1" s="6"/>
+      <c r="AGG1" s="6"/>
+      <c r="AGH1" s="6"/>
+      <c r="AGI1" s="6"/>
+      <c r="AGJ1" s="6"/>
+      <c r="AGK1" s="6"/>
+      <c r="AGL1" s="6"/>
+      <c r="AGM1" s="6"/>
+      <c r="AGN1" s="6"/>
+      <c r="AGO1" s="6"/>
+      <c r="AGP1" s="6"/>
+      <c r="AGQ1" s="6"/>
+      <c r="AGR1" s="6"/>
+      <c r="AGS1" s="6"/>
+      <c r="AGT1" s="6"/>
+      <c r="AGU1" s="6"/>
+      <c r="AGV1" s="6"/>
+      <c r="AGW1" s="6"/>
+      <c r="AGX1" s="6"/>
+      <c r="AGY1" s="6"/>
+      <c r="AGZ1" s="6"/>
+      <c r="AHA1" s="6"/>
+      <c r="AHB1" s="6"/>
+      <c r="AHC1" s="6"/>
+      <c r="AHD1" s="6"/>
+      <c r="AHE1" s="6"/>
+      <c r="AHF1" s="6"/>
+      <c r="AHG1" s="6"/>
+      <c r="AHH1" s="6"/>
+      <c r="AHI1" s="6"/>
+      <c r="AHJ1" s="6"/>
+      <c r="AHK1" s="6"/>
+      <c r="AHL1" s="6"/>
+      <c r="AHM1" s="6"/>
+      <c r="AHN1" s="6"/>
+      <c r="AHO1" s="6"/>
+      <c r="AHP1" s="6"/>
+      <c r="AHQ1" s="6"/>
+      <c r="AHR1" s="6"/>
+      <c r="AHS1" s="6"/>
+      <c r="AHT1" s="6"/>
+      <c r="AHU1" s="6"/>
+      <c r="AHV1" s="6"/>
+      <c r="AHW1" s="6"/>
+      <c r="AHX1" s="6"/>
+      <c r="AHY1" s="6"/>
+      <c r="AHZ1" s="6"/>
+      <c r="AIA1" s="6"/>
+      <c r="AIB1" s="6"/>
+      <c r="AIC1" s="6"/>
+      <c r="AID1" s="6"/>
+      <c r="AIE1" s="6"/>
+      <c r="AIF1" s="6"/>
+      <c r="AIG1" s="6"/>
+      <c r="AIH1" s="6"/>
+      <c r="AII1" s="6"/>
+      <c r="AIJ1" s="6"/>
+      <c r="AIK1" s="6"/>
+      <c r="AIL1" s="6"/>
+      <c r="AIM1" s="6"/>
+      <c r="AIN1" s="6"/>
+      <c r="AIO1" s="6"/>
+      <c r="AIP1" s="6"/>
+      <c r="AIQ1" s="6"/>
+      <c r="AIR1" s="6"/>
+      <c r="AIS1" s="6"/>
+      <c r="AIT1" s="6"/>
+      <c r="AIU1" s="6"/>
+      <c r="AIV1" s="6"/>
+      <c r="AIW1" s="6"/>
+      <c r="AIX1" s="6"/>
+      <c r="AIY1" s="6"/>
+      <c r="AIZ1" s="6"/>
+      <c r="AJA1" s="6"/>
+      <c r="AJB1" s="6"/>
+      <c r="AJC1" s="6"/>
+      <c r="AJD1" s="6"/>
+      <c r="AJE1" s="6"/>
+      <c r="AJF1" s="6"/>
+      <c r="AJG1" s="6"/>
+      <c r="AJH1" s="6"/>
+      <c r="AJI1" s="6"/>
+      <c r="AJJ1" s="6"/>
+      <c r="AJK1" s="6"/>
+      <c r="AJL1" s="6"/>
+      <c r="AJM1" s="6"/>
+      <c r="AJN1" s="6"/>
+      <c r="AJO1" s="6"/>
+      <c r="AJP1" s="6"/>
+      <c r="AJQ1" s="6"/>
+      <c r="AJR1" s="6"/>
+      <c r="AJS1" s="6"/>
+      <c r="AJT1" s="6"/>
+      <c r="AJU1" s="6"/>
+      <c r="AJV1" s="6"/>
+      <c r="AJW1" s="6"/>
+      <c r="AJX1" s="6"/>
+      <c r="AJY1" s="6"/>
+      <c r="AJZ1" s="6"/>
+      <c r="AKA1" s="6"/>
+      <c r="AKB1" s="6"/>
+      <c r="AKC1" s="6"/>
+      <c r="AKD1" s="6"/>
+      <c r="AKE1" s="6"/>
+      <c r="AKF1" s="6"/>
+      <c r="AKG1" s="6"/>
+      <c r="AKH1" s="6"/>
+      <c r="AKI1" s="6"/>
+      <c r="AKJ1" s="6"/>
+      <c r="AKK1" s="6"/>
+      <c r="AKL1" s="6"/>
+      <c r="AKM1" s="6"/>
+      <c r="AKN1" s="6"/>
+      <c r="AKO1" s="6"/>
+      <c r="AKP1" s="6"/>
+      <c r="AKQ1" s="6"/>
+      <c r="AKR1" s="6"/>
+      <c r="AKS1" s="6"/>
+      <c r="AKT1" s="6"/>
+      <c r="AKU1" s="6"/>
+      <c r="AKV1" s="6"/>
+      <c r="AKW1" s="6"/>
+      <c r="AKX1" s="6"/>
+      <c r="AKY1" s="6"/>
+      <c r="AKZ1" s="6"/>
+      <c r="ALA1" s="6"/>
+      <c r="ALB1" s="6"/>
+      <c r="ALC1" s="6"/>
+      <c r="ALD1" s="6"/>
+      <c r="ALE1" s="6"/>
+      <c r="ALF1" s="6"/>
+      <c r="ALG1" s="6"/>
+      <c r="ALH1" s="6"/>
+      <c r="ALI1" s="6"/>
+      <c r="ALJ1" s="6"/>
+      <c r="ALK1" s="6"/>
+      <c r="ALL1" s="6"/>
+      <c r="ALM1" s="6"/>
+      <c r="ALN1" s="6"/>
+      <c r="ALO1" s="6"/>
+      <c r="ALP1" s="6"/>
+      <c r="ALQ1" s="6"/>
+      <c r="ALR1" s="6"/>
+      <c r="ALS1" s="6"/>
+      <c r="ALT1" s="6"/>
+      <c r="ALU1" s="6"/>
+      <c r="ALV1" s="6"/>
+      <c r="ALW1" s="6"/>
+      <c r="ALX1" s="6"/>
+      <c r="ALY1" s="6"/>
+      <c r="ALZ1" s="6"/>
+      <c r="AMA1" s="6"/>
+      <c r="AMB1" s="6"/>
+      <c r="AMC1" s="6"/>
+      <c r="AMD1" s="6"/>
+      <c r="AME1" s="6"/>
+      <c r="AMF1" s="6"/>
+      <c r="AMG1" s="6"/>
+      <c r="AMH1" s="6"/>
+      <c r="AMI1" s="6"/>
+      <c r="AMJ1" s="6"/>
+      <c r="AMK1" s="6"/>
+      <c r="AML1" s="6"/>
+      <c r="AMM1" s="6"/>
+      <c r="AMN1" s="6"/>
+      <c r="AMO1" s="6"/>
+      <c r="AMP1" s="6"/>
+      <c r="AMQ1" s="6"/>
+      <c r="AMR1" s="6"/>
+      <c r="AMS1" s="6"/>
+      <c r="AMT1" s="6"/>
+      <c r="AMU1" s="6"/>
+      <c r="AMV1" s="6"/>
+      <c r="AMW1" s="6"/>
+      <c r="AMX1" s="6"/>
+      <c r="AMY1" s="6"/>
+      <c r="AMZ1" s="6"/>
+      <c r="ANA1" s="6"/>
+      <c r="ANB1" s="6"/>
+      <c r="ANC1" s="6"/>
+      <c r="AND1" s="6"/>
+      <c r="ANE1" s="6"/>
+      <c r="ANF1" s="6"/>
+      <c r="ANG1" s="6"/>
+      <c r="ANH1" s="6"/>
+      <c r="ANI1" s="6"/>
+      <c r="ANJ1" s="6"/>
+      <c r="ANK1" s="6"/>
+      <c r="ANL1" s="6"/>
+      <c r="ANM1" s="6"/>
+      <c r="ANN1" s="6"/>
+      <c r="ANO1" s="6"/>
+      <c r="ANP1" s="6"/>
+      <c r="ANQ1" s="6"/>
+      <c r="ANR1" s="6"/>
+      <c r="ANS1" s="6"/>
+      <c r="ANT1" s="6"/>
+      <c r="ANU1" s="6"/>
+      <c r="ANV1" s="6"/>
+      <c r="ANW1" s="6"/>
+      <c r="ANX1" s="6"/>
+      <c r="ANY1" s="6"/>
+      <c r="ANZ1" s="6"/>
+      <c r="AOA1" s="6"/>
+      <c r="AOB1" s="6"/>
+      <c r="AOC1" s="6"/>
+      <c r="AOD1" s="6"/>
+      <c r="AOE1" s="6"/>
+      <c r="AOF1" s="6"/>
+      <c r="AOG1" s="6"/>
+      <c r="AOH1" s="6"/>
+      <c r="AOI1" s="6"/>
+      <c r="AOJ1" s="6"/>
+      <c r="AOK1" s="6"/>
+      <c r="AOL1" s="6"/>
+      <c r="AOM1" s="6"/>
+      <c r="AON1" s="6"/>
+      <c r="AOO1" s="6"/>
+      <c r="AOP1" s="6"/>
+      <c r="AOQ1" s="6"/>
+      <c r="AOR1" s="6"/>
+      <c r="AOS1" s="6"/>
+      <c r="AOT1" s="6"/>
+      <c r="AOU1" s="6"/>
+      <c r="AOV1" s="6"/>
+      <c r="AOW1" s="6"/>
+      <c r="AOX1" s="6"/>
+      <c r="AOY1" s="6"/>
+      <c r="AOZ1" s="6"/>
+      <c r="APA1" s="6"/>
+      <c r="APB1" s="6"/>
+      <c r="APC1" s="6"/>
+      <c r="APD1" s="6"/>
+      <c r="APE1" s="6"/>
+      <c r="APF1" s="6"/>
+      <c r="APG1" s="6"/>
+      <c r="APH1" s="6"/>
+      <c r="API1" s="6"/>
+      <c r="APJ1" s="6"/>
+      <c r="APK1" s="6"/>
+      <c r="APL1" s="6"/>
+      <c r="APM1" s="6"/>
+      <c r="APN1" s="6"/>
+      <c r="APO1" s="6"/>
+      <c r="APP1" s="6"/>
+      <c r="APQ1" s="6"/>
+      <c r="APR1" s="6"/>
+      <c r="APS1" s="6"/>
+      <c r="APT1" s="6"/>
+      <c r="APU1" s="6"/>
+      <c r="APV1" s="6"/>
+      <c r="APW1" s="6"/>
+      <c r="APX1" s="6"/>
+      <c r="APY1" s="6"/>
+      <c r="APZ1" s="6"/>
+      <c r="AQA1" s="6"/>
+      <c r="AQB1" s="6"/>
+      <c r="AQC1" s="6"/>
+      <c r="AQD1" s="6"/>
+      <c r="AQE1" s="6"/>
+      <c r="AQF1" s="6"/>
+      <c r="AQG1" s="6"/>
+      <c r="AQH1" s="6"/>
+      <c r="AQI1" s="6"/>
+      <c r="AQJ1" s="6"/>
+      <c r="AQK1" s="6"/>
+      <c r="AQL1" s="6"/>
+      <c r="AQM1" s="6"/>
+      <c r="AQN1" s="6"/>
+      <c r="AQO1" s="6"/>
+      <c r="AQP1" s="6"/>
+      <c r="AQQ1" s="6"/>
+      <c r="AQR1" s="6"/>
+      <c r="AQS1" s="6"/>
+      <c r="AQT1" s="6"/>
+      <c r="AQU1" s="6"/>
+      <c r="AQV1" s="6"/>
+      <c r="AQW1" s="6"/>
+      <c r="AQX1" s="6"/>
+      <c r="AQY1" s="6"/>
+      <c r="AQZ1" s="6"/>
+      <c r="ARA1" s="6"/>
+      <c r="ARB1" s="6"/>
+      <c r="ARC1" s="6"/>
+      <c r="ARD1" s="6"/>
+      <c r="ARE1" s="6"/>
+      <c r="ARF1" s="6"/>
+      <c r="ARG1" s="6"/>
+      <c r="ARH1" s="6"/>
+      <c r="ARI1" s="6"/>
+      <c r="ARJ1" s="6"/>
+      <c r="ARK1" s="6"/>
+      <c r="ARL1" s="6"/>
+      <c r="ARM1" s="6"/>
+      <c r="ARN1" s="6"/>
+      <c r="ARO1" s="6"/>
+      <c r="ARP1" s="6"/>
+      <c r="ARQ1" s="6"/>
+      <c r="ARR1" s="6"/>
+      <c r="ARS1" s="6"/>
+      <c r="ART1" s="6"/>
+      <c r="ARU1" s="6"/>
+      <c r="ARV1" s="6"/>
+      <c r="ARW1" s="6"/>
+      <c r="ARX1" s="6"/>
+      <c r="ARY1" s="6"/>
+      <c r="ARZ1" s="6"/>
+      <c r="ASA1" s="6"/>
+      <c r="ASB1" s="6"/>
+      <c r="ASC1" s="6"/>
+      <c r="ASD1" s="6"/>
+      <c r="ASE1" s="6"/>
+      <c r="ASF1" s="6"/>
+      <c r="ASG1" s="6"/>
+      <c r="ASH1" s="6"/>
+      <c r="ASI1" s="6"/>
+      <c r="ASJ1" s="6"/>
+      <c r="ASK1" s="6"/>
+      <c r="ASL1" s="6"/>
+      <c r="ASM1" s="6"/>
+      <c r="ASN1" s="6"/>
+      <c r="ASO1" s="6"/>
+      <c r="ASP1" s="6"/>
+      <c r="ASQ1" s="6"/>
+      <c r="ASR1" s="6"/>
+      <c r="ASS1" s="6"/>
+      <c r="AST1" s="6"/>
+      <c r="ASU1" s="6"/>
+      <c r="ASV1" s="6"/>
+      <c r="ASW1" s="6"/>
+      <c r="ASX1" s="6"/>
+      <c r="ASY1" s="6"/>
+      <c r="ASZ1" s="6"/>
+      <c r="ATA1" s="6"/>
+      <c r="ATB1" s="6"/>
+      <c r="ATC1" s="6"/>
+      <c r="ATD1" s="6"/>
+      <c r="ATE1" s="6"/>
+      <c r="ATF1" s="6"/>
+      <c r="ATG1" s="6"/>
+      <c r="ATH1" s="6"/>
+      <c r="ATI1" s="6"/>
+      <c r="ATJ1" s="6"/>
+      <c r="ATK1" s="6"/>
+      <c r="ATL1" s="6"/>
+      <c r="ATM1" s="6"/>
+      <c r="ATN1" s="6"/>
+      <c r="ATO1" s="6"/>
+      <c r="ATP1" s="6"/>
+      <c r="ATQ1" s="6"/>
+      <c r="ATR1" s="6"/>
+      <c r="ATS1" s="6"/>
+      <c r="ATT1" s="6"/>
+      <c r="ATU1" s="6"/>
+      <c r="ATV1" s="6"/>
+      <c r="ATW1" s="6"/>
+      <c r="ATX1" s="6"/>
+      <c r="ATY1" s="6"/>
+      <c r="ATZ1" s="6"/>
+      <c r="AUA1" s="6"/>
+      <c r="AUB1" s="6"/>
+      <c r="AUC1" s="6"/>
+      <c r="AUD1" s="6"/>
+      <c r="AUE1" s="6"/>
+      <c r="AUF1" s="6"/>
+      <c r="AUG1" s="6"/>
+      <c r="AUH1" s="6"/>
+      <c r="AUI1" s="6"/>
+      <c r="AUJ1" s="6"/>
+      <c r="AUK1" s="6"/>
+      <c r="AUL1" s="6"/>
+      <c r="AUM1" s="6"/>
+      <c r="AUN1" s="6"/>
+      <c r="AUO1" s="6"/>
+      <c r="AUP1" s="6"/>
+      <c r="AUQ1" s="6"/>
+      <c r="AUR1" s="6"/>
+      <c r="AUS1" s="6"/>
+      <c r="AUT1" s="6"/>
+      <c r="AUU1" s="6"/>
+      <c r="AUV1" s="6"/>
+      <c r="AUW1" s="6"/>
+      <c r="AUX1" s="6"/>
+      <c r="AUY1" s="6"/>
+      <c r="AUZ1" s="6"/>
+      <c r="AVA1" s="6"/>
+      <c r="AVB1" s="6"/>
+      <c r="AVC1" s="6"/>
+      <c r="AVD1" s="6"/>
+      <c r="AVE1" s="6"/>
+      <c r="AVF1" s="6"/>
+      <c r="AVG1" s="6"/>
+      <c r="AVH1" s="6"/>
+      <c r="AVI1" s="6"/>
+      <c r="AVJ1" s="6"/>
+      <c r="AVK1" s="6"/>
+      <c r="AVL1" s="6"/>
+      <c r="AVM1" s="6"/>
+      <c r="AVN1" s="6"/>
+      <c r="AVO1" s="6"/>
+      <c r="AVP1" s="6"/>
+      <c r="AVQ1" s="6"/>
+      <c r="AVR1" s="6"/>
+      <c r="AVS1" s="6"/>
+      <c r="AVT1" s="6"/>
+      <c r="AVU1" s="6"/>
+      <c r="AVV1" s="6"/>
+      <c r="AVW1" s="6"/>
+      <c r="AVX1" s="6"/>
+      <c r="AVY1" s="6"/>
+      <c r="AVZ1" s="6"/>
+      <c r="AWA1" s="6"/>
+      <c r="AWB1" s="6"/>
+      <c r="AWC1" s="6"/>
+      <c r="AWD1" s="6"/>
+      <c r="AWE1" s="6"/>
+      <c r="AWF1" s="6"/>
+      <c r="AWG1" s="6"/>
+      <c r="AWH1" s="6"/>
+      <c r="AWI1" s="6"/>
+      <c r="AWJ1" s="6"/>
+      <c r="AWK1" s="6"/>
+      <c r="AWL1" s="6"/>
+      <c r="AWM1" s="6"/>
+      <c r="AWN1" s="6"/>
+      <c r="AWO1" s="6"/>
+      <c r="AWP1" s="6"/>
+      <c r="AWQ1" s="6"/>
+      <c r="AWR1" s="6"/>
+      <c r="AWS1" s="6"/>
+      <c r="AWT1" s="6"/>
+      <c r="AWU1" s="6"/>
+      <c r="AWV1" s="6"/>
+      <c r="AWW1" s="6"/>
+      <c r="AWX1" s="6"/>
+      <c r="AWY1" s="6"/>
+      <c r="AWZ1" s="6"/>
+      <c r="AXA1" s="6"/>
+      <c r="AXB1" s="6"/>
+      <c r="AXC1" s="6"/>
+      <c r="AXD1" s="6"/>
+      <c r="AXE1" s="6"/>
+      <c r="AXF1" s="6"/>
+      <c r="AXG1" s="6"/>
+      <c r="AXH1" s="6"/>
+      <c r="AXI1" s="6"/>
+      <c r="AXJ1" s="6"/>
+      <c r="AXK1" s="6"/>
+      <c r="AXL1" s="6"/>
+      <c r="AXM1" s="6"/>
+      <c r="AXN1" s="6"/>
+      <c r="AXO1" s="6"/>
+      <c r="AXP1" s="6"/>
+      <c r="AXQ1" s="6"/>
+      <c r="AXR1" s="6"/>
+      <c r="AXS1" s="6"/>
+      <c r="AXT1" s="6"/>
+      <c r="AXU1" s="6"/>
+      <c r="AXV1" s="6"/>
+      <c r="AXW1" s="6"/>
+      <c r="AXX1" s="6"/>
+      <c r="AXY1" s="6"/>
+      <c r="AXZ1" s="6"/>
+      <c r="AYA1" s="6"/>
+      <c r="AYB1" s="6"/>
+      <c r="AYC1" s="6"/>
+      <c r="AYD1" s="6"/>
+      <c r="AYE1" s="6"/>
+      <c r="AYF1" s="6"/>
+      <c r="AYG1" s="6"/>
+      <c r="AYH1" s="6"/>
+      <c r="AYI1" s="6"/>
+      <c r="AYJ1" s="6"/>
+      <c r="AYK1" s="6"/>
+      <c r="AYL1" s="6"/>
+      <c r="AYM1" s="6"/>
+      <c r="AYN1" s="6"/>
+      <c r="AYO1" s="6"/>
+      <c r="AYP1" s="6"/>
+      <c r="AYQ1" s="6"/>
+      <c r="AYR1" s="6"/>
+      <c r="AYS1" s="6"/>
+      <c r="AYT1" s="6"/>
+      <c r="AYU1" s="6"/>
+      <c r="AYV1" s="6"/>
+      <c r="AYW1" s="6"/>
+      <c r="AYX1" s="6"/>
+      <c r="AYY1" s="6"/>
+      <c r="AYZ1" s="6"/>
+      <c r="AZA1" s="6"/>
+      <c r="AZB1" s="6"/>
+      <c r="AZC1" s="6"/>
+      <c r="AZD1" s="6"/>
+      <c r="AZE1" s="6"/>
+      <c r="AZF1" s="6"/>
+      <c r="AZG1" s="6"/>
+      <c r="AZH1" s="6"/>
+      <c r="AZI1" s="6"/>
+      <c r="AZJ1" s="6"/>
+      <c r="AZK1" s="6"/>
+      <c r="AZL1" s="6"/>
+      <c r="AZM1" s="6"/>
+      <c r="AZN1" s="6"/>
+      <c r="AZO1" s="6"/>
+      <c r="AZP1" s="6"/>
+      <c r="AZQ1" s="6"/>
+      <c r="AZR1" s="6"/>
+      <c r="AZS1" s="6"/>
+      <c r="AZT1" s="6"/>
+      <c r="AZU1" s="6"/>
+      <c r="AZV1" s="6"/>
+      <c r="AZW1" s="6"/>
+      <c r="AZX1" s="6"/>
+      <c r="AZY1" s="6"/>
+      <c r="AZZ1" s="6"/>
+      <c r="BAA1" s="6"/>
+      <c r="BAB1" s="6"/>
+      <c r="BAC1" s="6"/>
+      <c r="BAD1" s="6"/>
+    </row>
+    <row r="2" spans="1:1382" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="8">
+        <v>700</v>
+      </c>
+      <c r="M2" s="8">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="8">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>8522</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1534</v>
+      </c>
+      <c r="S2" s="9">
+        <v>10056</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="10">
+        <f>[1]City_Of_Registration!B4</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>2014</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>600008</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>123</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="EX1:XFD1 B1">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:W1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>